--- a/クリックポスト発送情報/20200905204937/英子日本发货表格9.4.xlsx
+++ b/クリックポスト発送情報/20200905204937/英子日本发货表格9.4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>序号</t>
   </si>
@@ -124,6 +124,14 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>628592055895</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>628592055884</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -132,7 +140,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -227,7 +235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -282,13 +290,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -777,7 +788,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1177,7 +1188,9 @@
       <c r="I3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="20"/>
+      <c r="K3" s="21" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
       <c r="A4" s="12" t="s">
@@ -1202,7 +1215,9 @@
       <c r="I4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="20"/>
+      <c r="K4" s="21" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1"/>
     <row r="6" spans="1:181" ht="121.95" customHeight="1"/>
